--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1096.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1096.xlsx
@@ -351,10 +351,10 @@
         <v>1.25666481338889</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.693930294358142</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1096.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1096.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.25666481338889</v>
+        <v>1.176273584365845</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.413061857223511</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.693930294358142</v>
+        <v>2.33787989616394</v>
       </c>
       <c r="E1">
-        <v>1.100492353595558</v>
+        <v>1.201970219612122</v>
       </c>
     </row>
   </sheetData>
